--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epcam-Epcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epcam-Epcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +513,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -522,49 +525,235 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.050085</v>
+      </c>
+      <c r="H2">
+        <v>0.10017</v>
+      </c>
+      <c r="I2">
+        <v>0.4119961612284069</v>
+      </c>
+      <c r="J2">
+        <v>0.318389142285015</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.050085</v>
+      </c>
+      <c r="N2">
+        <v>0.10017</v>
+      </c>
+      <c r="O2">
+        <v>0.4119961612284069</v>
+      </c>
+      <c r="P2">
+        <v>0.318389142285015</v>
+      </c>
+      <c r="Q2">
+        <v>0.002508507225</v>
+      </c>
+      <c r="R2">
+        <v>0.0100340289</v>
+      </c>
+      <c r="S2">
+        <v>0.1697408368669435</v>
+      </c>
+      <c r="T2">
+        <v>0.1013716459249875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.050085</v>
+      </c>
+      <c r="H3">
+        <v>0.10017</v>
+      </c>
+      <c r="I3">
+        <v>0.4119961612284069</v>
+      </c>
+      <c r="J3">
+        <v>0.318389142285015</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.07821366666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.234641</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="M3">
+        <v>0.07148166666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.214445</v>
+      </c>
+      <c r="O3">
+        <v>0.5880038387715931</v>
+      </c>
+      <c r="P3">
+        <v>0.681610857714985</v>
+      </c>
+      <c r="Q3">
+        <v>0.003580159275</v>
+      </c>
+      <c r="R3">
+        <v>0.02148095565</v>
+      </c>
+      <c r="S3">
+        <v>0.2422553243614635</v>
+      </c>
+      <c r="T3">
+        <v>0.2170174963600275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M2">
-        <v>0.07821366666666667</v>
-      </c>
-      <c r="N2">
-        <v>0.234641</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.006117377653444445</v>
-      </c>
-      <c r="R2">
-        <v>0.05505639888099999</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="G4">
+        <v>0.07148166666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.214445</v>
+      </c>
+      <c r="I4">
+        <v>0.5880038387715931</v>
+      </c>
+      <c r="J4">
+        <v>0.681610857714985</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.050085</v>
+      </c>
+      <c r="N4">
+        <v>0.10017</v>
+      </c>
+      <c r="O4">
+        <v>0.4119961612284069</v>
+      </c>
+      <c r="P4">
+        <v>0.318389142285015</v>
+      </c>
+      <c r="Q4">
+        <v>0.003580159275</v>
+      </c>
+      <c r="R4">
+        <v>0.02148095565</v>
+      </c>
+      <c r="S4">
+        <v>0.2422553243614635</v>
+      </c>
+      <c r="T4">
+        <v>0.2170174963600275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.07148166666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.214445</v>
+      </c>
+      <c r="I5">
+        <v>0.5880038387715931</v>
+      </c>
+      <c r="J5">
+        <v>0.681610857714985</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.07148166666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.214445</v>
+      </c>
+      <c r="O5">
+        <v>0.5880038387715931</v>
+      </c>
+      <c r="P5">
+        <v>0.681610857714985</v>
+      </c>
+      <c r="Q5">
+        <v>0.005109628669444444</v>
+      </c>
+      <c r="R5">
+        <v>0.045986658025</v>
+      </c>
+      <c r="S5">
+        <v>0.3457485144101297</v>
+      </c>
+      <c r="T5">
+        <v>0.4645933613549575</v>
       </c>
     </row>
   </sheetData>
